--- a/raw_data/20200818_saline/20200818_Sensor1_Test_43.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_43.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5708BF9C-C003-4A8E-9D36-073A81FBF961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>37988.356125</v>
+        <v>37988.356124999998</v>
       </c>
       <c r="B2" s="1">
-        <v>10.552321</v>
+        <v>10.552320999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>899.243000</v>
+        <v>899.24300000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-188.644000</v>
+        <v>-188.64400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>37998.732924</v>
+        <v>37998.732924000004</v>
       </c>
       <c r="G2" s="1">
         <v>10.555204</v>
       </c>
       <c r="H2" s="1">
-        <v>917.024000</v>
+        <v>917.024</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.873000</v>
+        <v>-161.87299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>38009.190074</v>
+        <v>38009.190073999998</v>
       </c>
       <c r="L2" s="1">
-        <v>10.558108</v>
+        <v>10.558108000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.232000</v>
+        <v>942.23199999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.013000</v>
+        <v>-118.01300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>38019.678939</v>
+        <v>38019.678938999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.561022</v>
+        <v>10.561021999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>950.166000</v>
+        <v>950.16600000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.907000</v>
+        <v>-102.907</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>38030.247727</v>
+        <v>38030.247727000002</v>
       </c>
       <c r="V2" s="1">
         <v>10.563958</v>
       </c>
       <c r="W2" s="1">
-        <v>957.774000</v>
+        <v>957.774</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.536000</v>
+        <v>-88.536000000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>38040.684049</v>
+        <v>38040.684049000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>10.566857</v>
+        <v>10.566857000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.918000</v>
+        <v>965.91800000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.272000</v>
+        <v>-77.272000000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>38051.561281</v>
+        <v>38051.561281000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>10.569878</v>
+        <v>10.569877999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.030000</v>
+        <v>971.03</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.055600</v>
+        <v>-75.055599999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>38061.931635</v>
+        <v>38061.931635000001</v>
       </c>
       <c r="AK2" s="1">
         <v>10.572759</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.511000</v>
+        <v>978.51099999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.670500</v>
+        <v>-79.670500000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>38072.519734</v>
+        <v>38072.519734000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.575700</v>
+        <v>10.575699999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.707000</v>
+        <v>986.70699999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.192100</v>
+        <v>-91.192099999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>38083.531415</v>
+        <v>38083.531414999998</v>
       </c>
       <c r="AU2" s="1">
         <v>10.578759</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.578000</v>
+        <v>996.57799999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.734000</v>
+        <v>-108.73399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>38094.735049</v>
+        <v>38094.735049000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.581871</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.349000</v>
+        <v>-124.349</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>38105.638107</v>
+        <v>38105.638106999999</v>
       </c>
       <c r="BE2" s="1">
         <v>10.584899</v>
       </c>
       <c r="BF2" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.212000</v>
+        <v>-196.21199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>38116.348219</v>
@@ -661,347 +1077,347 @@
         <v>10.587875</v>
       </c>
       <c r="BK2" s="1">
-        <v>1109.220000</v>
+        <v>1109.22</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.298000</v>
+        <v>-313.298</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>38127.598478</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.591000</v>
+        <v>10.590999999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-498.565000</v>
+        <v>-498.565</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>38139.177114</v>
+        <v>38139.177113999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.594216</v>
+        <v>10.594215999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.070000</v>
+        <v>1338.07</v>
       </c>
       <c r="BV2" s="1">
-        <v>-702.829000</v>
+        <v>-702.82899999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>38149.842591</v>
+        <v>38149.842591000001</v>
       </c>
       <c r="BY2" s="1">
         <v>10.597178</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.130000</v>
+        <v>1474.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-920.166000</v>
+        <v>-920.16600000000005</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>38160.722336</v>
+        <v>38160.722335999999</v>
       </c>
       <c r="CD2" s="1">
         <v>10.600201</v>
       </c>
       <c r="CE2" s="1">
-        <v>1833.720000</v>
+        <v>1833.72</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1438.200000</v>
+        <v>-1438.2</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>37988.733540</v>
+        <v>37988.733540000001</v>
       </c>
       <c r="B3" s="1">
-        <v>10.552426</v>
+        <v>10.552426000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>899.099000</v>
+        <v>899.09900000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-188.377000</v>
+        <v>-188.37700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>37999.113814</v>
+        <v>37999.113813999997</v>
       </c>
       <c r="G3" s="1">
-        <v>10.555309</v>
+        <v>10.555308999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>917.071000</v>
+        <v>917.07100000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.803000</v>
+        <v>-161.803</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>38009.547688</v>
+        <v>38009.547687999999</v>
       </c>
       <c r="L3" s="1">
         <v>10.558208</v>
       </c>
       <c r="M3" s="1">
-        <v>942.178000</v>
+        <v>942.178</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.135000</v>
+        <v>-118.13500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>38020.053450</v>
+        <v>38020.053449999999</v>
       </c>
       <c r="Q3" s="1">
         <v>10.561126</v>
       </c>
       <c r="R3" s="1">
-        <v>950.134000</v>
+        <v>950.13400000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.856000</v>
+        <v>-102.85599999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>38030.631596</v>
+        <v>38030.631595999999</v>
       </c>
       <c r="V3" s="1">
         <v>10.564064</v>
       </c>
       <c r="W3" s="1">
-        <v>957.861000</v>
+        <v>957.86099999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.579200</v>
+        <v>-88.5792</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>38041.418590</v>
+        <v>38041.418590000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.567061</v>
+        <v>10.567061000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.850000</v>
+        <v>965.85</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.208900</v>
+        <v>-77.2089</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>38051.906000</v>
+        <v>38051.906000000003</v>
       </c>
       <c r="AF3" s="1">
         <v>10.569974</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.023000</v>
+        <v>971.02300000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.097100</v>
+        <v>-75.097099999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>38062.318050</v>
+        <v>38062.318050000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.572866</v>
+        <v>10.572865999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.527000</v>
+        <v>978.52700000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.693300</v>
+        <v>-79.693299999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>38072.905621</v>
+        <v>38072.905620999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.575807</v>
+        <v>10.575806999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.714000</v>
+        <v>986.71400000000006</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.165500</v>
+        <v>-91.165499999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>38083.914327</v>
+        <v>38083.914326999999</v>
       </c>
       <c r="AU3" s="1">
         <v>10.578865</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.568000</v>
+        <v>996.56799999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.740000</v>
+        <v>-108.74</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>38095.419032</v>
+        <v>38095.419031999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.582061</v>
+        <v>10.582060999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.371000</v>
+        <v>-124.371</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>38105.750214</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.584931</v>
+        <v>10.584930999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.226000</v>
+        <v>-196.226</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>38116.795115</v>
+        <v>38116.795115000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.587999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1109.220000</v>
+        <v>1109.22</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.300000</v>
+        <v>-313.3</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>38128.035048</v>
+        <v>38128.035047999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>10.591121</v>
+        <v>10.591120999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-498.581000</v>
+        <v>-498.58100000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>38139.608606</v>
+        <v>38139.608606000002</v>
       </c>
       <c r="BT3" s="1">
         <v>10.594336</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.940000</v>
+        <v>1337.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-702.843000</v>
+        <v>-702.84299999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>38150.322192</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.597312</v>
+        <v>10.597312000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.120000</v>
+        <v>1474.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-920.277000</v>
+        <v>-920.27700000000004</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>38161.299649</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.600361</v>
+        <v>10.600360999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1832.220000</v>
+        <v>1832.22</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1438.850000</v>
+        <v>-1438.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>37989.071813</v>
+        <v>37989.071813000002</v>
       </c>
       <c r="B4" s="1">
-        <v>10.552520</v>
+        <v>10.552519999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.222000</v>
+        <v>899.22199999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-188.510000</v>
+        <v>-188.51</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>37999.460023</v>
@@ -1010,178 +1426,178 @@
         <v>10.555406</v>
       </c>
       <c r="H4" s="1">
-        <v>917.228000</v>
+        <v>917.22799999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.570000</v>
+        <v>-161.57</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>38009.893401</v>
+        <v>38009.893401000001</v>
       </c>
       <c r="L4" s="1">
         <v>10.558304</v>
       </c>
       <c r="M4" s="1">
-        <v>942.297000</v>
+        <v>942.29700000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.916000</v>
+        <v>-117.916</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>38020.750793</v>
+        <v>38020.750792999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.561320</v>
+        <v>10.56132</v>
       </c>
       <c r="R4" s="1">
-        <v>950.105000</v>
+        <v>950.10500000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.807000</v>
+        <v>-102.807</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>38031.318555</v>
+        <v>38031.318554999998</v>
       </c>
       <c r="V4" s="1">
-        <v>10.564255</v>
+        <v>10.564254999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>957.826000</v>
+        <v>957.82600000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.541100</v>
+        <v>-88.5411</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>38041.768271</v>
+        <v>38041.768271000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.567158</v>
+        <v>10.567157999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.844000</v>
+        <v>965.84400000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.147500</v>
+        <v>-77.147499999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>38052.252263</v>
+        <v>38052.252263000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.570070</v>
+        <v>10.570069999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.023000</v>
+        <v>971.02300000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.045300</v>
+        <v>-75.045299999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>38062.664723</v>
+        <v>38062.664723000002</v>
       </c>
       <c r="AK4" s="1">
         <v>10.572962</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.509000</v>
+        <v>978.50900000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.688500</v>
+        <v>-79.688500000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>38073.585177</v>
+        <v>38073.585177000001</v>
       </c>
       <c r="AP4" s="1">
         <v>10.575996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.721000</v>
+        <v>986.721</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.184100</v>
+        <v>-91.184100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>38084.590909</v>
+        <v>38084.590908999999</v>
       </c>
       <c r="AU4" s="1">
         <v>10.579053</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.576000</v>
+        <v>996.57600000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>38095.837159</v>
+        <v>38095.837159000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.582177</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.368000</v>
+        <v>-124.36799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>38106.101370</v>
+        <v>38106.101369999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.585028</v>
+        <v>10.585027999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1043.170000</v>
+        <v>1043.17</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.222000</v>
+        <v>-196.22200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>38117.193931</v>
+        <v>38117.193931000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.588109</v>
+        <v>10.588108999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1109.230000</v>
+        <v>1109.23</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.277000</v>
+        <v>-313.27699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>38128.453083</v>
@@ -1190,120 +1606,120 @@
         <v>10.591237</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-498.592000</v>
+        <v>-498.59199999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>38140.029708</v>
+        <v>38140.029708000002</v>
       </c>
       <c r="BT4" s="1">
         <v>10.594453</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.860000</v>
+        <v>1337.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-702.894000</v>
+        <v>-702.89400000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>38150.755198</v>
+        <v>38150.755197999999</v>
       </c>
       <c r="BY4" s="1">
         <v>10.597432</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.090000</v>
+        <v>1474.09</v>
       </c>
       <c r="CA4" s="1">
-        <v>-920.224000</v>
+        <v>-920.22400000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>38161.833877</v>
+        <v>38161.833876999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.600509</v>
+        <v>10.600509000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1833.360000</v>
+        <v>1833.36</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1438.550000</v>
+        <v>-1438.55</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>37989.412563</v>
+        <v>37989.412562999998</v>
       </c>
       <c r="B5" s="1">
-        <v>10.552615</v>
+        <v>10.552614999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>898.950000</v>
+        <v>898.95</v>
       </c>
       <c r="D5" s="1">
-        <v>-188.408000</v>
+        <v>-188.40799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>38000.147986</v>
+        <v>38000.147986000004</v>
       </c>
       <c r="G5" s="1">
-        <v>10.555597</v>
+        <v>10.555597000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>917.112000</v>
+        <v>917.11199999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.223000</v>
+        <v>-162.22300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>38010.584792</v>
+        <v>38010.584792000001</v>
       </c>
       <c r="L5" s="1">
         <v>10.558496</v>
       </c>
       <c r="M5" s="1">
-        <v>942.280000</v>
+        <v>942.28</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.989000</v>
+        <v>-117.989</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>38021.100015</v>
+        <v>38021.100015000004</v>
       </c>
       <c r="Q5" s="1">
         <v>10.561417</v>
       </c>
       <c r="R5" s="1">
-        <v>950.166000</v>
+        <v>950.16600000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.834000</v>
+        <v>-102.834</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>38031.663771</v>
@@ -1312,28 +1728,28 @@
         <v>10.564351</v>
       </c>
       <c r="W5" s="1">
-        <v>957.839000</v>
+        <v>957.83900000000006</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.501200</v>
+        <v>-88.501199999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>38042.115469</v>
+        <v>38042.115468999997</v>
       </c>
       <c r="AA5" s="1">
         <v>10.567254</v>
       </c>
       <c r="AB5" s="1">
-        <v>965.870000</v>
+        <v>965.87</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.146300</v>
+        <v>-77.146299999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>38052.897503</v>
@@ -1342,330 +1758,330 @@
         <v>10.570249</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.049000</v>
+        <v>971.04899999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.039200</v>
+        <v>-75.039199999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>38063.324898</v>
+        <v>38063.324897999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.573146</v>
+        <v>10.573145999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.536000</v>
+        <v>978.53599999999994</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.716600</v>
+        <v>-79.7166</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>38074.016164</v>
+        <v>38074.016164000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.576116</v>
+        <v>10.576116000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.701000</v>
+        <v>986.70100000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.180800</v>
+        <v>-91.180800000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>38085.034821</v>
+        <v>38085.034821000001</v>
       </c>
       <c r="AU5" s="1">
         <v>10.579176</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.595000</v>
+        <v>996.59500000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.738000</v>
+        <v>-108.738</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>38096.211667</v>
+        <v>38096.211667000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>10.582281</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.840000</v>
+        <v>1004.84</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.370000</v>
+        <v>-124.37</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>38106.461993</v>
+        <v>38106.461992999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.585128</v>
+        <v>10.585127999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1043.210000</v>
+        <v>1043.21</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.244000</v>
+        <v>-196.244</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>38117.570889</v>
+        <v>38117.570889000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.588214</v>
+        <v>10.588214000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.283000</v>
+        <v>-313.28300000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>38128.877693</v>
+        <v>38128.877693000002</v>
       </c>
       <c r="BO5" s="1">
         <v>10.591355</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-498.585000</v>
+        <v>-498.58499999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>38140.443867</v>
+        <v>38140.443867000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.594568</v>
+        <v>10.594568000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.880000</v>
+        <v>1337.88</v>
       </c>
       <c r="BV5" s="1">
-        <v>-702.940000</v>
+        <v>-702.94</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>38151.176331</v>
+        <v>38151.176331000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.597549</v>
+        <v>10.597549000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.160000</v>
+        <v>1474.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-920.203000</v>
+        <v>-920.20299999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>38162.351664</v>
+        <v>38162.351664000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.600653</v>
+        <v>10.600652999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1833.220000</v>
+        <v>1833.22</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1438.820000</v>
+        <v>-1438.82</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>37990.097372</v>
+        <v>37990.097371999997</v>
       </c>
       <c r="B6" s="1">
-        <v>10.552805</v>
+        <v>10.552804999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>899.273000</v>
+        <v>899.27300000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-188.363000</v>
+        <v>-188.363</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>38000.491238</v>
+        <v>38000.491238000002</v>
       </c>
       <c r="G6" s="1">
-        <v>10.555692</v>
+        <v>10.555692000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.801000</v>
+        <v>916.80100000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.655000</v>
+        <v>-161.655</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>38010.928739</v>
+        <v>38010.928739000003</v>
       </c>
       <c r="L6" s="1">
         <v>10.558591</v>
       </c>
       <c r="M6" s="1">
-        <v>942.334000</v>
+        <v>942.33399999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.230000</v>
+        <v>-118.23</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>38021.446682</v>
+        <v>38021.446682000002</v>
       </c>
       <c r="Q6" s="1">
         <v>10.561513</v>
       </c>
       <c r="R6" s="1">
-        <v>950.154000</v>
+        <v>950.154</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.853000</v>
+        <v>-102.85299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>38032.004070</v>
+        <v>38032.004070000003</v>
       </c>
       <c r="V6" s="1">
         <v>10.564446</v>
       </c>
       <c r="W6" s="1">
-        <v>957.856000</v>
+        <v>957.85599999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.547700</v>
+        <v>-88.547700000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>38042.773200</v>
+        <v>38042.773200000003</v>
       </c>
       <c r="AA6" s="1">
         <v>10.567437</v>
       </c>
       <c r="AB6" s="1">
-        <v>965.941000</v>
+        <v>965.94100000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.202900</v>
+        <v>-77.2029</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>38053.280450</v>
+        <v>38053.280449999998</v>
       </c>
       <c r="AF6" s="1">
         <v>10.570356</v>
       </c>
       <c r="AG6" s="1">
-        <v>970.997000</v>
+        <v>970.99699999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.090500</v>
+        <v>-75.090500000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>38063.711811</v>
+        <v>38063.711811000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>10.573253</v>
+        <v>10.573252999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.530000</v>
+        <v>978.53</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.682900</v>
+        <v>-79.682900000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>38074.374772</v>
+        <v>38074.374772000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.576215</v>
+        <v>10.576214999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.702000</v>
+        <v>986.702</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.177000</v>
+        <v>-91.177000000000007</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>38085.402324</v>
+        <v>38085.402324000002</v>
       </c>
       <c r="AU6" s="1">
         <v>10.579278</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.572000</v>
+        <v>996.572</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.734000</v>
+        <v>-108.73399999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>38096.594085</v>
+        <v>38096.594084999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.582387</v>
+        <v>10.582387000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.347000</v>
+        <v>-124.34699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>38106.875128</v>
@@ -1674,58 +2090,58 @@
         <v>10.585243</v>
       </c>
       <c r="BF6" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.227000</v>
+        <v>-196.227</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>38117.987994</v>
+        <v>38117.987994000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.588330</v>
+        <v>10.588329999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.285000</v>
+        <v>-313.28500000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>38129.272507</v>
+        <v>38129.272507000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>10.591465</v>
+        <v>10.591464999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-498.579000</v>
+        <v>-498.57900000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>38140.856539</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.594682</v>
+        <v>10.594682000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.850000</v>
+        <v>1337.85</v>
       </c>
       <c r="BV6" s="1">
-        <v>-702.841000</v>
+        <v>-702.84100000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>38151.599682</v>
@@ -1734,31 +2150,31 @@
         <v>10.597667</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.050000</v>
+        <v>1474.05</v>
       </c>
       <c r="CA6" s="1">
-        <v>-920.231000</v>
+        <v>-920.23099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>38162.906190</v>
+        <v>38162.906190000002</v>
       </c>
       <c r="CD6" s="1">
         <v>10.600807</v>
       </c>
       <c r="CE6" s="1">
-        <v>1832.350000</v>
+        <v>1832.35</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1438.950000</v>
+        <v>-1438.95</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>37990.442786</v>
       </c>
@@ -1766,88 +2182,88 @@
         <v>10.552901</v>
       </c>
       <c r="C7" s="1">
-        <v>899.209000</v>
+        <v>899.20899999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-188.505000</v>
+        <v>-188.505</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>38000.836950</v>
+        <v>38000.836949999997</v>
       </c>
       <c r="G7" s="1">
         <v>10.555788</v>
       </c>
       <c r="H7" s="1">
-        <v>916.963000</v>
+        <v>916.96299999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.016000</v>
+        <v>-162.01599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>38011.273766</v>
+        <v>38011.273765999998</v>
       </c>
       <c r="L7" s="1">
-        <v>10.558687</v>
+        <v>10.558687000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>942.290000</v>
+        <v>942.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.121000</v>
+        <v>-118.121</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>38022.111096</v>
+        <v>38022.111096000001</v>
       </c>
       <c r="Q7" s="1">
         <v>10.561698</v>
       </c>
       <c r="R7" s="1">
-        <v>950.143000</v>
+        <v>950.14300000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.892000</v>
+        <v>-102.892</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>38032.781790</v>
+        <v>38032.781790000001</v>
       </c>
       <c r="V7" s="1">
         <v>10.564662</v>
       </c>
       <c r="W7" s="1">
-        <v>957.787000</v>
+        <v>957.78700000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.517700</v>
+        <v>-88.517700000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>38043.160046</v>
+        <v>38043.160045999997</v>
       </c>
       <c r="AA7" s="1">
         <v>10.567544</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.971000</v>
+        <v>965.971</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.300200</v>
+        <v>-77.300200000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>38053.623646</v>
@@ -1856,166 +2272,166 @@
         <v>10.570451</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.007000</v>
+        <v>971.00699999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.041500</v>
+        <v>-75.041499999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>38064.062481</v>
+        <v>38064.062481000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.573351</v>
+        <v>10.573351000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.500000</v>
+        <v>978.5</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.685300</v>
+        <v>-79.685299999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>38074.734371</v>
+        <v>38074.734370999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.576315</v>
+        <v>10.576314999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.712000</v>
+        <v>986.71199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.186200</v>
+        <v>-91.186199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>38086.007941</v>
+        <v>38086.007941000003</v>
       </c>
       <c r="AU7" s="1">
         <v>10.579447</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.581000</v>
+        <v>996.58100000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.736000</v>
+        <v>-108.736</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>38097.032021</v>
+        <v>38097.032020999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>10.582509</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.353000</v>
+        <v>-124.35299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>38107.184665</v>
+        <v>38107.184665000001</v>
       </c>
       <c r="BE7" s="1">
         <v>10.585329</v>
       </c>
       <c r="BF7" s="1">
-        <v>1043.170000</v>
+        <v>1043.17</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.232000</v>
+        <v>-196.232</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>38118.331226</v>
+        <v>38118.331226000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.588425</v>
+        <v>10.588425000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1109.220000</v>
+        <v>1109.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.278000</v>
+        <v>-313.27800000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>38129.672286</v>
+        <v>38129.672286000001</v>
       </c>
       <c r="BO7" s="1">
         <v>10.591576</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-498.570000</v>
+        <v>-498.57</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>38141.271226</v>
+        <v>38141.271225999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.594798</v>
+        <v>10.594798000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.770000</v>
+        <v>1337.77</v>
       </c>
       <c r="BV7" s="1">
-        <v>-702.851000</v>
+        <v>-702.851</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>38152.024988</v>
+        <v>38152.024987999997</v>
       </c>
       <c r="BY7" s="1">
         <v>10.597785</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.110000</v>
+        <v>1474.11</v>
       </c>
       <c r="CA7" s="1">
-        <v>-920.317000</v>
+        <v>-920.31700000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>38163.433966</v>
+        <v>38163.433965999997</v>
       </c>
       <c r="CD7" s="1">
         <v>10.600954</v>
       </c>
       <c r="CE7" s="1">
-        <v>1833.700000</v>
+        <v>1833.7</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1438.670000</v>
+        <v>-1438.67</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>37990.784538</v>
       </c>
@@ -2023,223 +2439,223 @@
         <v>10.552996</v>
       </c>
       <c r="C8" s="1">
-        <v>899.094000</v>
+        <v>899.09400000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-188.449000</v>
+        <v>-188.44900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>38001.492162</v>
+        <v>38001.492162000002</v>
       </c>
       <c r="G8" s="1">
-        <v>10.555970</v>
+        <v>10.55597</v>
       </c>
       <c r="H8" s="1">
-        <v>916.591000</v>
+        <v>916.59100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.827000</v>
+        <v>-161.827</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>38011.928746</v>
+        <v>38011.928745999998</v>
       </c>
       <c r="L8" s="1">
         <v>10.558869</v>
       </c>
       <c r="M8" s="1">
-        <v>942.338000</v>
+        <v>942.33799999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.248000</v>
+        <v>-118.248</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>38022.492247</v>
+        <v>38022.492247000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.561803</v>
+        <v>10.561802999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>950.114000</v>
+        <v>950.11400000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.850000</v>
+        <v>-102.85</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>38033.034235</v>
+        <v>38033.034234999999</v>
       </c>
       <c r="V8" s="1">
-        <v>10.564732</v>
+        <v>10.564731999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>957.767000</v>
+        <v>957.76700000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.464600</v>
+        <v>-88.464600000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>38043.509227</v>
+        <v>38043.509227000002</v>
       </c>
       <c r="AA8" s="1">
         <v>10.567641</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.967000</v>
+        <v>965.96699999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.194300</v>
+        <v>-77.194299999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>38053.967373</v>
+        <v>38053.967372999999</v>
       </c>
       <c r="AF8" s="1">
         <v>10.570546</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.024000</v>
+        <v>971.024</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.057900</v>
+        <v>-75.057900000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>38064.411136</v>
+        <v>38064.411136000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.573448</v>
+        <v>10.573448000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.490000</v>
+        <v>978.49</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.683700</v>
+        <v>-79.683700000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>38075.156343</v>
+        <v>38075.156343000002</v>
       </c>
       <c r="AP8" s="1">
         <v>10.576432</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.709000</v>
+        <v>986.70899999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.163000</v>
+        <v>-91.162999999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>38086.130451</v>
+        <v>38086.130450999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.579481</v>
+        <v>10.579480999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.565000</v>
+        <v>996.56500000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.725000</v>
+        <v>-108.72499999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>38097.314740</v>
+        <v>38097.314740000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.582587</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.800000</v>
+        <v>1004.8</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.353000</v>
+        <v>-124.35299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>38107.545250</v>
+        <v>38107.545250000003</v>
       </c>
       <c r="BE8" s="1">
         <v>10.585429</v>
       </c>
       <c r="BF8" s="1">
-        <v>1043.200000</v>
+        <v>1043.2</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.244000</v>
+        <v>-196.244</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>38118.722606</v>
+        <v>38118.722606000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.588534</v>
+        <v>10.588533999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1109.210000</v>
+        <v>1109.21</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.302000</v>
+        <v>-313.30200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>38130.093849</v>
+        <v>38130.093848999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.591693</v>
+        <v>10.591692999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-498.604000</v>
+        <v>-498.60399999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>38141.710154</v>
       </c>
       <c r="BT8" s="1">
-        <v>10.594919</v>
+        <v>10.594919000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.700000</v>
+        <v>1337.7</v>
       </c>
       <c r="BV8" s="1">
-        <v>-702.855000</v>
+        <v>-702.85500000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>38152.444571</v>
@@ -2248,120 +2664,120 @@
         <v>10.597901</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.100000</v>
+        <v>1474.1</v>
       </c>
       <c r="CA8" s="1">
-        <v>-920.340000</v>
+        <v>-920.34</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>38163.950270</v>
+        <v>38163.950270000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.601097</v>
+        <v>10.601096999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1833.190000</v>
+        <v>1833.19</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1437.340000</v>
+        <v>-1437.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>37991.450130</v>
+        <v>37991.450129999997</v>
       </c>
       <c r="B9" s="1">
         <v>10.553181</v>
       </c>
       <c r="C9" s="1">
-        <v>899.052000</v>
+        <v>899.05200000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-188.321000</v>
+        <v>-188.321</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>38001.872066</v>
+        <v>38001.872066000004</v>
       </c>
       <c r="G9" s="1">
-        <v>10.556076</v>
+        <v>10.556075999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.019000</v>
+        <v>917.01900000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.811000</v>
+        <v>-161.81100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>38012.311972</v>
+        <v>38012.311972000003</v>
       </c>
       <c r="L9" s="1">
-        <v>10.558976</v>
+        <v>10.558975999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>942.433000</v>
+        <v>942.43299999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.232000</v>
+        <v>-118.232</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>38022.844414</v>
+        <v>38022.844413999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.561901</v>
+        <v>10.561901000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>950.143000</v>
+        <v>950.14300000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.878000</v>
+        <v>-102.878</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>38033.376954</v>
+        <v>38033.376953999999</v>
       </c>
       <c r="V9" s="1">
-        <v>10.564827</v>
+        <v>10.564826999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>957.840000</v>
+        <v>957.84</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.555200</v>
+        <v>-88.555199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>38043.857944</v>
+        <v>38043.857944000003</v>
       </c>
       <c r="AA9" s="1">
         <v>10.567738</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.952000</v>
+        <v>965.952</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.265900</v>
+        <v>-77.265900000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>38054.387486</v>
@@ -2370,300 +2786,300 @@
         <v>10.570663</v>
       </c>
       <c r="AG9" s="1">
-        <v>970.997000</v>
+        <v>970.99699999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.087100</v>
+        <v>-75.087100000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>38064.832240</v>
+        <v>38064.832240000003</v>
       </c>
       <c r="AK9" s="1">
         <v>10.573565</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.521000</v>
+        <v>978.52099999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.683800</v>
+        <v>-79.683800000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>38075.458035</v>
+        <v>38075.458035000003</v>
       </c>
       <c r="AP9" s="1">
         <v>10.576516</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.693000</v>
+        <v>986.69299999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.166000</v>
+        <v>-91.165999999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>38086.522787</v>
+        <v>38086.522787000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>10.579590</v>
+        <v>10.57959</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.571000</v>
+        <v>996.57100000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.768000</v>
+        <v>-108.768</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>38097.671364</v>
+        <v>38097.671364000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.582686</v>
+        <v>10.582686000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.363000</v>
+        <v>-124.363</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>38107.898374</v>
+        <v>38107.898373999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.585527</v>
+        <v>10.585527000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.245000</v>
+        <v>-196.245</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>38119.095559</v>
+        <v>38119.095559000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>10.588638</v>
       </c>
       <c r="BK9" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.293000</v>
+        <v>-313.29300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>38130.909801</v>
+        <v>38130.909801000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.591919</v>
+        <v>10.591919000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-498.586000</v>
+        <v>-498.58600000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>38142.139689</v>
+        <v>38142.139689000003</v>
       </c>
       <c r="BT9" s="1">
         <v>10.595039</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.610000</v>
+        <v>1337.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-702.768000</v>
+        <v>-702.76800000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>38152.890017</v>
+        <v>38152.890016999998</v>
       </c>
       <c r="BY9" s="1">
         <v>10.598025</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.060000</v>
+        <v>1474.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-920.209000</v>
+        <v>-920.20899999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>38164.469084</v>
+        <v>38164.469083999997</v>
       </c>
       <c r="CD9" s="1">
         <v>10.601241</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.960000</v>
+        <v>1831.96</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1437.810000</v>
+        <v>-1437.81</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>37991.809264</v>
+        <v>37991.809264000003</v>
       </c>
       <c r="B10" s="1">
-        <v>10.553280</v>
+        <v>10.553280000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>899.275000</v>
+        <v>899.27499999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-188.677000</v>
+        <v>-188.67699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>38002.216786</v>
+        <v>38002.216785999997</v>
       </c>
       <c r="G10" s="1">
-        <v>10.556171</v>
+        <v>10.556171000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>916.978000</v>
+        <v>916.97799999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.762000</v>
+        <v>-161.762</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>38012.659094</v>
+        <v>38012.659094000002</v>
       </c>
       <c r="L10" s="1">
         <v>10.559072</v>
       </c>
       <c r="M10" s="1">
-        <v>942.339000</v>
+        <v>942.33900000000006</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.131000</v>
+        <v>-118.131</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>38023.191652</v>
+        <v>38023.191652000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.561998</v>
+        <v>10.561998000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>950.161000</v>
+        <v>950.16099999999994</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.837000</v>
+        <v>-102.837</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>38033.795084</v>
+        <v>38033.795083999998</v>
       </c>
       <c r="V10" s="1">
         <v>10.564943</v>
       </c>
       <c r="W10" s="1">
-        <v>957.778000</v>
+        <v>957.77800000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.497000</v>
+        <v>-88.497</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>38044.277034</v>
+        <v>38044.277033999999</v>
       </c>
       <c r="AA10" s="1">
         <v>10.567855</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.954000</v>
+        <v>965.95399999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.223700</v>
+        <v>-77.223699999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>38054.656846</v>
+        <v>38054.656845999998</v>
       </c>
       <c r="AF10" s="1">
         <v>10.570738</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.024000</v>
+        <v>971.024</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.051600</v>
+        <v>-75.051599999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>38065.112976</v>
+        <v>38065.112975999997</v>
       </c>
       <c r="AK10" s="1">
         <v>10.573642</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.520000</v>
+        <v>978.52</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.694000</v>
+        <v>-79.694000000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>38075.816640</v>
+        <v>38075.816639999997</v>
       </c>
       <c r="AP10" s="1">
         <v>10.576616</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.706000</v>
+        <v>986.70600000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.186600</v>
+        <v>-91.186599999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>38086.890819</v>
@@ -2672,43 +3088,43 @@
         <v>10.579692</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.560000</v>
+        <v>996.56</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.735000</v>
+        <v>-108.735</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>38098.029973</v>
+        <v>38098.029972999997</v>
       </c>
       <c r="AZ10" s="1">
         <v>10.582786</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.360000</v>
+        <v>-124.36</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>38108.633978</v>
+        <v>38108.633977999998</v>
       </c>
       <c r="BE10" s="1">
         <v>10.585732</v>
       </c>
       <c r="BF10" s="1">
-        <v>1043.170000</v>
+        <v>1043.17</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.242000</v>
+        <v>-196.24199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>38119.846049</v>
@@ -2717,240 +3133,240 @@
         <v>10.588846</v>
       </c>
       <c r="BK10" s="1">
-        <v>1109.230000</v>
+        <v>1109.23</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.329000</v>
+        <v>-313.32900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>38131.326905</v>
+        <v>38131.326905000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.592035</v>
+        <v>10.592034999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-498.640000</v>
+        <v>-498.64</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>38142.551369</v>
+        <v>38142.551369000001</v>
       </c>
       <c r="BT10" s="1">
         <v>10.595153</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.590000</v>
+        <v>1337.59</v>
       </c>
       <c r="BV10" s="1">
-        <v>-702.770000</v>
+        <v>-702.77</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>38153.314555</v>
+        <v>38153.314554999997</v>
       </c>
       <c r="BY10" s="1">
         <v>10.598143</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.970000</v>
+        <v>1473.97</v>
       </c>
       <c r="CA10" s="1">
-        <v>-920.286000</v>
+        <v>-920.28599999999994</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>38165.298460</v>
+        <v>38165.298459999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.601472</v>
+        <v>10.601471999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1832.600000</v>
+        <v>1832.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1439.110000</v>
+        <v>-1439.11</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>37992.153487</v>
+        <v>37992.153487000003</v>
       </c>
       <c r="B11" s="1">
         <v>10.553376</v>
       </c>
       <c r="C11" s="1">
-        <v>899.107000</v>
+        <v>899.10699999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-188.540000</v>
+        <v>-188.54</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>38002.562001</v>
+        <v>38002.562000999998</v>
       </c>
       <c r="G11" s="1">
         <v>10.556267</v>
       </c>
       <c r="H11" s="1">
-        <v>916.833000</v>
+        <v>916.83299999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.481000</v>
+        <v>-161.48099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>38013.002789</v>
+        <v>38013.002788999998</v>
       </c>
       <c r="L11" s="1">
         <v>10.559167</v>
       </c>
       <c r="M11" s="1">
-        <v>942.340000</v>
+        <v>942.34</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.031000</v>
+        <v>-118.03100000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>38023.615191</v>
+        <v>38023.615190999997</v>
       </c>
       <c r="Q11" s="1">
         <v>10.562115</v>
       </c>
       <c r="R11" s="1">
-        <v>950.186000</v>
+        <v>950.18600000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.834000</v>
+        <v>-102.834</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>38034.067880</v>
+        <v>38034.067880000002</v>
       </c>
       <c r="V11" s="1">
-        <v>10.565019</v>
+        <v>10.565018999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>957.841000</v>
+        <v>957.84100000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.475600</v>
+        <v>-88.4756</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>38044.555290</v>
+        <v>38044.555289999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.567932</v>
+        <v>10.567932000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.889000</v>
+        <v>965.88900000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.247900</v>
+        <v>-77.247900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>38054.998592</v>
+        <v>38054.998592000004</v>
       </c>
       <c r="AF11" s="1">
         <v>10.570833</v>
       </c>
       <c r="AG11" s="1">
-        <v>970.991000</v>
+        <v>970.99099999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.045800</v>
+        <v>-75.0458</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>38065.460176</v>
+        <v>38065.460176000001</v>
       </c>
       <c r="AK11" s="1">
         <v>10.573739</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.525000</v>
+        <v>978.52499999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.692600</v>
+        <v>-79.692599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>38076.176736</v>
+        <v>38076.176736000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.576716</v>
+        <v>10.576715999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.705000</v>
+        <v>986.70500000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.176600</v>
+        <v>-91.176599999999993</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>38087.616962</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.579894</v>
+        <v>10.579893999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.580000</v>
+        <v>996.58</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.742000</v>
+        <v>-108.742</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>38098.745699</v>
+        <v>38098.745698999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.582985</v>
+        <v>10.582985000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.362000</v>
+        <v>-124.36199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>38109.012424</v>
@@ -2959,13 +3375,13 @@
         <v>10.585837</v>
       </c>
       <c r="BF11" s="1">
-        <v>1043.200000</v>
+        <v>1043.2</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.232000</v>
+        <v>-196.232</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>38120.221975</v>
@@ -2974,482 +3390,482 @@
         <v>10.588951</v>
       </c>
       <c r="BK11" s="1">
-        <v>1109.210000</v>
+        <v>1109.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.310000</v>
+        <v>-313.31</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>38131.723239</v>
+        <v>38131.723238999999</v>
       </c>
       <c r="BO11" s="1">
         <v>10.592145</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-498.590000</v>
+        <v>-498.59</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>38143.296360</v>
+        <v>38143.29636</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.595360</v>
+        <v>10.595359999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.630000</v>
+        <v>1337.63</v>
       </c>
       <c r="BV11" s="1">
-        <v>-702.678000</v>
+        <v>-702.678</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>38154.037723</v>
+        <v>38154.037723000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.598344</v>
+        <v>10.598344000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.950000</v>
+        <v>1473.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-920.179000</v>
+        <v>-920.17899999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>38165.503738</v>
+        <v>38165.503737999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>10.601529</v>
+        <v>10.601528999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1833.570000</v>
+        <v>1833.57</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1438.300000</v>
+        <v>-1438.3</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>37992.491232</v>
       </c>
       <c r="B12" s="1">
-        <v>10.553470</v>
+        <v>10.553470000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>899.214000</v>
+        <v>899.21400000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>-188.221000</v>
+        <v>-188.221</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>38002.974177</v>
+        <v>38002.974176999996</v>
       </c>
       <c r="G12" s="1">
-        <v>10.556382</v>
+        <v>10.556381999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>916.793000</v>
+        <v>916.79300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.082000</v>
+        <v>-162.08199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>38013.423430</v>
+        <v>38013.423430000003</v>
       </c>
       <c r="L12" s="1">
         <v>10.559284</v>
       </c>
       <c r="M12" s="1">
-        <v>942.295000</v>
+        <v>942.29499999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.136000</v>
+        <v>-118.136</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>38023.894933</v>
+        <v>38023.894933000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.562193</v>
+        <v>10.562193000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>950.212000</v>
+        <v>950.21199999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.863000</v>
+        <v>-102.863</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>38034.410626</v>
+        <v>38034.410625999997</v>
       </c>
       <c r="V12" s="1">
-        <v>10.565114</v>
+        <v>10.565113999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>957.797000</v>
+        <v>957.79700000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.502000</v>
+        <v>-88.501999999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>38044.905002</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.568029</v>
+        <v>10.568028999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.930000</v>
+        <v>965.93</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.220300</v>
+        <v>-77.220299999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>38055.343808</v>
+        <v>38055.343807999998</v>
       </c>
       <c r="AF12" s="1">
         <v>10.570929</v>
       </c>
       <c r="AG12" s="1">
-        <v>970.992000</v>
+        <v>970.99199999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.056000</v>
+        <v>-75.055999999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>38065.811838</v>
+        <v>38065.811838000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.573837</v>
+        <v>10.573836999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.493000</v>
+        <v>978.49300000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.686500</v>
+        <v>-79.686499999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>38076.897919</v>
+        <v>38076.897919000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.576916</v>
+        <v>10.576916000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.696000</v>
+        <v>986.69600000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.170900</v>
+        <v>-91.170900000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>38088.007345</v>
+        <v>38088.007344999998</v>
       </c>
       <c r="AU12" s="1">
         <v>10.580002</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.586000</v>
+        <v>996.58600000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.732000</v>
+        <v>-108.732</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>38099.105795</v>
+        <v>38099.105795000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.583085</v>
+        <v>10.583085000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.363000</v>
+        <v>-124.363</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>38109.373515</v>
+        <v>38109.373514999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.585937</v>
+        <v>10.585936999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.239000</v>
+        <v>-196.239</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>38120.907941</v>
+        <v>38120.907940999998</v>
       </c>
       <c r="BJ12" s="1">
         <v>10.589141</v>
       </c>
       <c r="BK12" s="1">
-        <v>1109.250000</v>
+        <v>1109.25</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.326000</v>
+        <v>-313.32600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>38132.461254</v>
+        <v>38132.461254000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.592350</v>
+        <v>10.59235</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-498.588000</v>
+        <v>-498.58800000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>38143.408951</v>
+        <v>38143.408950999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.595391</v>
+        <v>10.595390999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.550000</v>
+        <v>1337.55</v>
       </c>
       <c r="BV12" s="1">
-        <v>-702.687000</v>
+        <v>-702.68700000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>38154.215922</v>
+        <v>38154.215922000003</v>
       </c>
       <c r="BY12" s="1">
         <v>10.598393</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.120000</v>
+        <v>1474.12</v>
       </c>
       <c r="CA12" s="1">
-        <v>-920.312000</v>
+        <v>-920.31200000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>38166.020602</v>
+        <v>38166.020601999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.601672</v>
+        <v>10.601672000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1833.510000</v>
+        <v>1833.51</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1438.020000</v>
+        <v>-1438.02</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>37992.914828</v>
+        <v>37992.914828000001</v>
       </c>
       <c r="B13" s="1">
         <v>10.553587</v>
       </c>
       <c r="C13" s="1">
-        <v>899.152000</v>
+        <v>899.15200000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-188.261000</v>
+        <v>-188.261</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>38003.254913</v>
+        <v>38003.254912999997</v>
       </c>
       <c r="G13" s="1">
-        <v>10.556460</v>
+        <v>10.55646</v>
       </c>
       <c r="H13" s="1">
-        <v>917.541000</v>
+        <v>917.54100000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.723000</v>
+        <v>-161.72300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>38013.704131</v>
+        <v>38013.704130999999</v>
       </c>
       <c r="L13" s="1">
         <v>10.559362</v>
       </c>
       <c r="M13" s="1">
-        <v>942.439000</v>
+        <v>942.43899999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.076000</v>
+        <v>-118.07599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>38024.242167</v>
+        <v>38024.242166999997</v>
       </c>
       <c r="Q13" s="1">
         <v>10.562289</v>
       </c>
       <c r="R13" s="1">
-        <v>950.131000</v>
+        <v>950.13099999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.862000</v>
+        <v>-102.86199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>38034.753848</v>
       </c>
       <c r="V13" s="1">
-        <v>10.565209</v>
+        <v>10.565208999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>957.820000</v>
+        <v>957.82</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.557300</v>
+        <v>-88.557299999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>38045.251178</v>
+        <v>38045.251177999999</v>
       </c>
       <c r="AA13" s="1">
         <v>10.568125</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.862000</v>
+        <v>965.86199999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.264100</v>
+        <v>-77.264099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>38056.030731</v>
+        <v>38056.030730999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.571120</v>
+        <v>10.571120000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.016000</v>
+        <v>971.01599999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.008300</v>
+        <v>-75.008300000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>38066.507726</v>
+        <v>38066.507726000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.574030</v>
+        <v>10.57403</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.497000</v>
+        <v>978.49699999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.676200</v>
+        <v>-79.676199999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>38077.287807</v>
+        <v>38077.287807000001</v>
       </c>
       <c r="AP13" s="1">
         <v>10.577024</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.688000</v>
+        <v>986.68799999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.182400</v>
+        <v>-91.182400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>38088.373360</v>
+        <v>38088.373359999998</v>
       </c>
       <c r="AU13" s="1">
         <v>10.580104</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.577000</v>
+        <v>996.577</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.739000</v>
+        <v>-108.739</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>38099.466385</v>
@@ -3458,13 +3874,13 @@
         <v>10.583185</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.349000</v>
+        <v>-124.349</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>38110.047541</v>
@@ -3473,13 +3889,13 @@
         <v>10.586124</v>
       </c>
       <c r="BF13" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.239000</v>
+        <v>-196.239</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>38121.381125</v>
@@ -3488,497 +3904,497 @@
         <v>10.589273</v>
       </c>
       <c r="BK13" s="1">
-        <v>1109.220000</v>
+        <v>1109.22</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.295000</v>
+        <v>-313.29500000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>38132.964693</v>
+        <v>38132.964693000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.592490</v>
+        <v>10.59249</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-498.620000</v>
+        <v>-498.62</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>38143.849405</v>
+        <v>38143.849405000001</v>
       </c>
       <c r="BT13" s="1">
         <v>10.595514</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.580000</v>
+        <v>1337.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-702.586000</v>
+        <v>-702.58600000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>38154.681564</v>
+        <v>38154.681563999999</v>
       </c>
       <c r="BY13" s="1">
         <v>10.598523</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.060000</v>
+        <v>1474.06</v>
       </c>
       <c r="CA13" s="1">
-        <v>-920.307000</v>
+        <v>-920.30700000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>38166.570634</v>
+        <v>38166.570634000003</v>
       </c>
       <c r="CD13" s="1">
         <v>10.601825</v>
       </c>
       <c r="CE13" s="1">
-        <v>1833.280000</v>
+        <v>1833.28</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1439.060000</v>
+        <v>-1439.06</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>37993.193108</v>
+        <v>37993.193107999999</v>
       </c>
       <c r="B14" s="1">
-        <v>10.553665</v>
+        <v>10.553665000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>899.241000</v>
+        <v>899.24099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-188.273000</v>
+        <v>-188.273</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>38003.601120</v>
+        <v>38003.601119999999</v>
       </c>
       <c r="G14" s="1">
         <v>10.556556</v>
       </c>
       <c r="H14" s="1">
-        <v>916.695000</v>
+        <v>916.69500000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.887000</v>
+        <v>-161.887</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>38014.051828</v>
+        <v>38014.051828000003</v>
       </c>
       <c r="L14" s="1">
         <v>10.559459</v>
       </c>
       <c r="M14" s="1">
-        <v>942.178000</v>
+        <v>942.178</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.890000</v>
+        <v>-117.89</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>38024.591316</v>
+        <v>38024.591315999998</v>
       </c>
       <c r="Q14" s="1">
         <v>10.562386</v>
       </c>
       <c r="R14" s="1">
-        <v>950.149000</v>
+        <v>950.149</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.894000</v>
+        <v>-102.89400000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>38035.440806</v>
+        <v>38035.440805999999</v>
       </c>
       <c r="V14" s="1">
-        <v>10.565400</v>
+        <v>10.5654</v>
       </c>
       <c r="W14" s="1">
-        <v>957.839000</v>
+        <v>957.83900000000006</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.569400</v>
+        <v>-88.569400000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>38045.949049</v>
+        <v>38045.949049000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.568319</v>
+        <v>10.568319000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.042000</v>
+        <v>966.04200000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.196800</v>
+        <v>-77.196799999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>38056.371979</v>
+        <v>38056.371979000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>10.571214</v>
+        <v>10.571213999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.006000</v>
+        <v>971.00599999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.027300</v>
+        <v>-75.027299999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>38066.852978</v>
+        <v>38066.852978000003</v>
       </c>
       <c r="AK14" s="1">
         <v>10.574126</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.524000</v>
+        <v>978.524</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.710500</v>
+        <v>-79.710499999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>38077.644894</v>
+        <v>38077.644893999997</v>
       </c>
       <c r="AP14" s="1">
         <v>10.577124</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.706000</v>
+        <v>986.70600000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.168800</v>
+        <v>-91.168800000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>38089.037503</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.580288</v>
+        <v>10.580287999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.576000</v>
+        <v>996.57600000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>38100.132545</v>
       </c>
       <c r="AZ14" s="1">
-        <v>10.583370</v>
+        <v>10.58337</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.369000</v>
+        <v>-124.369</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>38110.488517</v>
+        <v>38110.488516999998</v>
       </c>
       <c r="BE14" s="1">
         <v>10.586247</v>
       </c>
       <c r="BF14" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.237000</v>
+        <v>-196.23699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>38121.753124</v>
+        <v>38121.753124000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.589376</v>
       </c>
       <c r="BK14" s="1">
-        <v>1109.220000</v>
+        <v>1109.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.285000</v>
+        <v>-313.28500000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>38133.382356</v>
+        <v>38133.382356000002</v>
       </c>
       <c r="BO14" s="1">
         <v>10.592606</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.690000</v>
+        <v>1216.69</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-498.612000</v>
+        <v>-498.61200000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>38144.258600</v>
+        <v>38144.258600000001</v>
       </c>
       <c r="BT14" s="1">
         <v>10.595627</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.590000</v>
+        <v>1337.59</v>
       </c>
       <c r="BV14" s="1">
-        <v>-702.537000</v>
+        <v>-702.53700000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>38155.058986</v>
+        <v>38155.058985999996</v>
       </c>
       <c r="BY14" s="1">
         <v>10.598627</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.070000</v>
+        <v>1474.07</v>
       </c>
       <c r="CA14" s="1">
-        <v>-920.305000</v>
+        <v>-920.30499999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>38167.100856</v>
+        <v>38167.100855999997</v>
       </c>
       <c r="CD14" s="1">
         <v>10.601972</v>
       </c>
       <c r="CE14" s="1">
-        <v>1833.670000</v>
+        <v>1833.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1437.710000</v>
+        <v>-1437.71</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>37993.534813</v>
+        <v>37993.534812999998</v>
       </c>
       <c r="B15" s="1">
-        <v>10.553760</v>
+        <v>10.55376</v>
       </c>
       <c r="C15" s="1">
-        <v>899.195000</v>
+        <v>899.19500000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-188.501000</v>
+        <v>-188.501</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>38003.942403</v>
+        <v>38003.942403000001</v>
       </c>
       <c r="G15" s="1">
         <v>10.556651</v>
       </c>
       <c r="H15" s="1">
-        <v>917.331000</v>
+        <v>917.33100000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.941000</v>
+        <v>-161.941</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>38014.396088</v>
+        <v>38014.396088000001</v>
       </c>
       <c r="L15" s="1">
         <v>10.559554</v>
       </c>
       <c r="M15" s="1">
-        <v>942.291000</v>
+        <v>942.29100000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.898000</v>
+        <v>-117.898</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>38025.287700</v>
+        <v>38025.287700000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>10.562580</v>
+        <v>10.562580000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>950.169000</v>
+        <v>950.16899999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.810000</v>
+        <v>-102.81</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>38035.783047</v>
+        <v>38035.783046999997</v>
       </c>
       <c r="V15" s="1">
         <v>10.565495</v>
       </c>
       <c r="W15" s="1">
-        <v>957.816000</v>
+        <v>957.81600000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.566700</v>
+        <v>-88.566699999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>38046.298264</v>
+        <v>38046.298263999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.568416</v>
+        <v>10.568415999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.952000</v>
+        <v>965.952</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.226500</v>
+        <v>-77.226500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>38056.716202</v>
+        <v>38056.716202000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.571310</v>
+        <v>10.57131</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.044000</v>
+        <v>971.04399999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.057900</v>
+        <v>-75.057900000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>38067.225466</v>
+        <v>38067.225466000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>10.574229</v>
+        <v>10.574229000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.498000</v>
+        <v>978.49800000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.692100</v>
+        <v>-79.692099999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>38078.313999</v>
+        <v>38078.313998999998</v>
       </c>
       <c r="AP15" s="1">
         <v>10.577309</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.721000</v>
+        <v>986.721</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.189100</v>
+        <v>-91.189099999999996</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>38089.502287</v>
+        <v>38089.502287000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.580417</v>
+        <v>10.580417000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.585000</v>
+        <v>996.58500000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.717000</v>
+        <v>-108.717</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>38100.539234</v>
+        <v>38100.539234000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.583483</v>
+        <v>10.583482999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.372000</v>
+        <v>-124.372</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>38110.850564</v>
@@ -3987,13 +4403,13 @@
         <v>10.586347</v>
       </c>
       <c r="BF15" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.235000</v>
+        <v>-196.23500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>38122.133555</v>
@@ -4002,407 +4418,407 @@
         <v>10.589482</v>
       </c>
       <c r="BK15" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.318000</v>
+        <v>-313.31799999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>38133.780631</v>
+        <v>38133.780631000001</v>
       </c>
       <c r="BO15" s="1">
         <v>10.592717</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-498.606000</v>
+        <v>-498.60599999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>38144.689127</v>
+        <v>38144.689126999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.595747</v>
+        <v>10.595746999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.610000</v>
+        <v>1337.61</v>
       </c>
       <c r="BV15" s="1">
-        <v>-702.462000</v>
+        <v>-702.46199999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>38155.506873</v>
+        <v>38155.506872999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.598752</v>
+        <v>10.598751999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.020000</v>
+        <v>1474.02</v>
       </c>
       <c r="CA15" s="1">
-        <v>-920.342000</v>
+        <v>-920.34199999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>38167.621657</v>
+        <v>38167.621657000003</v>
       </c>
       <c r="CD15" s="1">
         <v>10.602117</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.210000</v>
+        <v>1832.21</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1437.530000</v>
+        <v>-1437.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>37993.876093</v>
+        <v>37993.876092999999</v>
       </c>
       <c r="B16" s="1">
-        <v>10.553854</v>
+        <v>10.553853999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>899.279000</v>
+        <v>899.279</v>
       </c>
       <c r="D16" s="1">
-        <v>-188.455000</v>
+        <v>-188.45500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38004.632800</v>
+        <v>38004.632799999999</v>
       </c>
       <c r="G16" s="1">
         <v>10.556842</v>
       </c>
       <c r="H16" s="1">
-        <v>916.977000</v>
+        <v>916.97699999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.887000</v>
+        <v>-161.887</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>38015.090449</v>
+        <v>38015.090449000003</v>
       </c>
       <c r="L16" s="1">
         <v>10.559747</v>
       </c>
       <c r="M16" s="1">
-        <v>942.295000</v>
+        <v>942.29499999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.940000</v>
+        <v>-117.94</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>38025.637907</v>
+        <v>38025.637906999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.562677</v>
+        <v>10.562677000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>950.154000</v>
+        <v>950.154</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.854000</v>
+        <v>-102.854</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>38036.129751</v>
       </c>
       <c r="V16" s="1">
-        <v>10.565592</v>
+        <v>10.565592000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>957.738000</v>
+        <v>957.73800000000006</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.444800</v>
+        <v>-88.444800000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>38046.646919</v>
+        <v>38046.646918999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.568513</v>
+        <v>10.568512999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.832000</v>
+        <v>965.83199999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.221700</v>
+        <v>-77.221699999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>38057.367945</v>
+        <v>38057.367944999998</v>
       </c>
       <c r="AF16" s="1">
         <v>10.571491</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.025000</v>
+        <v>971.02499999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.032800</v>
+        <v>-75.032799999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>38067.914875</v>
+        <v>38067.914875000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.574421</v>
+        <v>10.574420999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.544000</v>
+        <v>978.54399999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.686200</v>
+        <v>-79.686199999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>38078.755453</v>
+        <v>38078.755452999998</v>
       </c>
       <c r="AP16" s="1">
         <v>10.577432</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.694000</v>
+        <v>986.69399999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.174000</v>
+        <v>-91.174000000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>38089.867310</v>
+        <v>38089.867310000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>10.580519</v>
+        <v>10.580519000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.576000</v>
+        <v>996.57600000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.732000</v>
+        <v>-108.732</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>38100.928592</v>
+        <v>38100.928591999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.583591</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.372000</v>
+        <v>-124.372</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>38111.210659</v>
+        <v>38111.210658999997</v>
       </c>
       <c r="BE16" s="1">
         <v>10.586447</v>
       </c>
       <c r="BF16" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.246000</v>
+        <v>-196.24600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>38122.554195</v>
+        <v>38122.554194999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.589598</v>
+        <v>10.589598000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.324000</v>
+        <v>-313.32400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>38134.204691</v>
+        <v>38134.204690999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.592835</v>
+        <v>10.592834999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-498.589000</v>
+        <v>-498.589</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>38145.118696</v>
+        <v>38145.118695999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.595866</v>
+        <v>10.595865999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.680000</v>
+        <v>1337.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-702.445000</v>
+        <v>-702.44500000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>38155.925031</v>
+        <v>38155.925030999999</v>
       </c>
       <c r="BY16" s="1">
         <v>10.598868</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.160000</v>
+        <v>1474.16</v>
       </c>
       <c r="CA16" s="1">
-        <v>-920.332000</v>
+        <v>-920.33199999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>38168.137527</v>
+        <v>38168.137526999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.602260</v>
+        <v>10.602259999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1832.260000</v>
+        <v>1832.26</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1438.930000</v>
+        <v>-1438.93</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>37994.559086</v>
+        <v>37994.559086000001</v>
       </c>
       <c r="B17" s="1">
-        <v>10.554044</v>
+        <v>10.554043999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>899.339000</v>
+        <v>899.33900000000006</v>
       </c>
       <c r="D17" s="1">
-        <v>-188.456000</v>
+        <v>-188.45599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>38004.978014</v>
       </c>
       <c r="G17" s="1">
-        <v>10.556938</v>
+        <v>10.556938000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.598000</v>
+        <v>916.59799999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.992000</v>
+        <v>-161.99199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>38015.439632</v>
+        <v>38015.439632000001</v>
       </c>
       <c r="L17" s="1">
         <v>10.559844</v>
       </c>
       <c r="M17" s="1">
-        <v>942.199000</v>
+        <v>942.19899999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.036000</v>
+        <v>-118.036</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>38025.984614</v>
+        <v>38025.984614000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.562774</v>
+        <v>10.562773999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>950.216000</v>
+        <v>950.21600000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.872000</v>
+        <v>-102.872</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>38036.784468</v>
+        <v>38036.784467999998</v>
       </c>
       <c r="V17" s="1">
         <v>10.565773</v>
       </c>
       <c r="W17" s="1">
-        <v>957.801000</v>
+        <v>957.80100000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.526000</v>
+        <v>-88.525999999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>38047.303666</v>
@@ -4411,28 +4827,28 @@
         <v>10.568695</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.869000</v>
+        <v>965.86900000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.192000</v>
+        <v>-77.191999999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>38057.747912</v>
+        <v>38057.747911999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.571597</v>
+        <v>10.571597000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>970.995000</v>
+        <v>970.995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.062300</v>
+        <v>-75.062299999999993</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>38068.278478</v>
@@ -4441,58 +4857,58 @@
         <v>10.574522</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.509000</v>
+        <v>978.50900000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.695100</v>
+        <v>-79.695099999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>38079.102140</v>
+        <v>38079.102140000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.577528</v>
+        <v>10.577527999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.697000</v>
+        <v>986.697</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.172000</v>
+        <v>-91.171999999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>38090.231870</v>
+        <v>38090.231870000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.580620</v>
+        <v>10.58062</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.579000</v>
+        <v>996.57899999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.765000</v>
+        <v>-108.765</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>38101.289679</v>
+        <v>38101.289679000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.583692</v>
+        <v>10.583691999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.365000</v>
+        <v>-124.36499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>38111.627794</v>
@@ -4501,362 +4917,362 @@
         <v>10.586563</v>
       </c>
       <c r="BF17" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.242000</v>
+        <v>-196.24199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>38122.898882</v>
+        <v>38122.898882000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.589694</v>
       </c>
       <c r="BK17" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.287000</v>
+        <v>-313.28699999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>38134.600512</v>
+        <v>38134.600511999997</v>
       </c>
       <c r="BO17" s="1">
         <v>10.592945</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.620000</v>
+        <v>1216.6199999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-498.618000</v>
+        <v>-498.61799999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>38145.532879</v>
+        <v>38145.532878999999</v>
       </c>
       <c r="BT17" s="1">
         <v>10.595981</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.770000</v>
+        <v>1337.77</v>
       </c>
       <c r="BV17" s="1">
-        <v>-702.378000</v>
+        <v>-702.37800000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>38156.350566</v>
+        <v>38156.350566000001</v>
       </c>
       <c r="BY17" s="1">
         <v>10.598986</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.210000</v>
+        <v>1474.21</v>
       </c>
       <c r="CA17" s="1">
-        <v>-920.268000</v>
+        <v>-920.26800000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>38168.655846</v>
+        <v>38168.655846000001</v>
       </c>
       <c r="CD17" s="1">
         <v>10.602404</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.750000</v>
+        <v>1831.75</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1438.630000</v>
+        <v>-1438.63</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>37994.901819</v>
+        <v>37994.901818999999</v>
       </c>
       <c r="B18" s="1">
-        <v>10.554139</v>
+        <v>10.554138999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>899.155000</v>
+        <v>899.15499999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-188.278000</v>
+        <v>-188.27799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>38005.326207</v>
+        <v>38005.326206999998</v>
       </c>
       <c r="G18" s="1">
-        <v>10.557035</v>
+        <v>10.557035000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>917.359000</v>
+        <v>917.35900000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.669000</v>
+        <v>-161.66900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>38016.095840</v>
+        <v>38016.095840000002</v>
       </c>
       <c r="L18" s="1">
         <v>10.560027</v>
       </c>
       <c r="M18" s="1">
-        <v>942.191000</v>
+        <v>942.19100000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.056000</v>
+        <v>-118.056</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>38026.643272</v>
+        <v>38026.643272000001</v>
       </c>
       <c r="Q18" s="1">
         <v>10.562956</v>
       </c>
       <c r="R18" s="1">
-        <v>950.122000</v>
+        <v>950.12199999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.834000</v>
+        <v>-102.834</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>38037.163448</v>
+        <v>38037.163447999999</v>
       </c>
       <c r="V18" s="1">
-        <v>10.565879</v>
+        <v>10.565879000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>957.781000</v>
+        <v>957.78099999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.527400</v>
+        <v>-88.5274</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>38047.694471</v>
+        <v>38047.694471000003</v>
       </c>
       <c r="AA18" s="1">
         <v>10.568804</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.917000</v>
+        <v>965.91700000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.215100</v>
+        <v>-77.215100000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>38058.087144</v>
+        <v>38058.087143999997</v>
       </c>
       <c r="AF18" s="1">
         <v>10.571691</v>
       </c>
       <c r="AG18" s="1">
-        <v>970.996000</v>
+        <v>970.99599999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.032200</v>
+        <v>-75.032200000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>38068.614765</v>
+        <v>38068.614764999998</v>
       </c>
       <c r="AK18" s="1">
         <v>10.574615</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.500000</v>
+        <v>978.5</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.682100</v>
+        <v>-79.682100000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>38079.472819</v>
+        <v>38079.472819000002</v>
       </c>
       <c r="AP18" s="1">
         <v>10.577631</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.689000</v>
+        <v>986.68899999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.180400</v>
+        <v>-91.180400000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>38090.654979</v>
+        <v>38090.654978999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.580737</v>
+        <v>10.580736999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.555000</v>
+        <v>996.55499999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.734000</v>
+        <v>-108.73399999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>38101.706815</v>
+        <v>38101.706814999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>10.583807</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.810000</v>
+        <v>1004.81</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.357000</v>
+        <v>-124.357</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>38111.930353</v>
+        <v>38111.930353000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>10.586647</v>
+        <v>10.586646999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1043.160000</v>
+        <v>1043.1600000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.223000</v>
+        <v>-196.22300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>38123.276370</v>
+        <v>38123.27637</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.589799</v>
+        <v>10.589798999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1109.280000</v>
+        <v>1109.28</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.286000</v>
+        <v>-313.286</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>38135.020610</v>
+        <v>38135.02061</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.593061</v>
+        <v>10.593061000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-498.619000</v>
+        <v>-498.61900000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>38145.959876</v>
+        <v>38145.959876000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.596100</v>
+        <v>10.5961</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="BV18" s="1">
-        <v>-702.377000</v>
+        <v>-702.37699999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>38156.797990</v>
+        <v>38156.797989999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.599111</v>
+        <v>10.599111000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.010000</v>
+        <v>1474.01</v>
       </c>
       <c r="CA18" s="1">
-        <v>-920.316000</v>
+        <v>-920.31600000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>38169.204885</v>
+        <v>38169.204884999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.602557</v>
+        <v>10.602556999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1832.740000</v>
+        <v>1832.74</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1437.680000</v>
+        <v>-1437.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>37995.241083</v>
+        <v>37995.241083000001</v>
       </c>
       <c r="B19" s="1">
-        <v>10.554234</v>
+        <v>10.554233999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>899.012000</v>
+        <v>899.01199999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>-188.443000</v>
+        <v>-188.44300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>38005.976959</v>
@@ -4865,241 +5281,241 @@
         <v>10.557216</v>
       </c>
       <c r="H19" s="1">
-        <v>916.888000</v>
+        <v>916.88800000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.502000</v>
+        <v>-161.50200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>38016.475776</v>
+        <v>38016.475775999999</v>
       </c>
       <c r="L19" s="1">
-        <v>10.560132</v>
+        <v>10.560131999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.437000</v>
+        <v>942.43700000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.918000</v>
+        <v>-117.91800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>38027.040563</v>
+        <v>38027.040563000002</v>
       </c>
       <c r="Q19" s="1">
         <v>10.563067</v>
       </c>
       <c r="R19" s="1">
-        <v>950.103000</v>
+        <v>950.10299999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.866000</v>
+        <v>-102.866</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>38037.507139</v>
+        <v>38037.507139000001</v>
       </c>
       <c r="V19" s="1">
-        <v>10.565974</v>
+        <v>10.565974000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>957.777000</v>
+        <v>957.77700000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.434900</v>
+        <v>-88.434899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>38048.038198</v>
+        <v>38048.038198000002</v>
       </c>
       <c r="AA19" s="1">
         <v>10.568899</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.865000</v>
+        <v>965.86500000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.291000</v>
+        <v>-77.290999999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>38058.433880</v>
+        <v>38058.433879999997</v>
       </c>
       <c r="AF19" s="1">
         <v>10.571787</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.003000</v>
+        <v>971.00300000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.046900</v>
+        <v>-75.046899999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>38069.030378</v>
+        <v>38069.030378000003</v>
       </c>
       <c r="AK19" s="1">
         <v>10.574731</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.507000</v>
+        <v>978.50699999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.703500</v>
+        <v>-79.703500000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>38079.882875</v>
+        <v>38079.882875000003</v>
       </c>
       <c r="AP19" s="1">
         <v>10.577745</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.720000</v>
+        <v>986.72</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.168500</v>
+        <v>-91.168499999999995</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>38090.960989</v>
+        <v>38090.960988999999</v>
       </c>
       <c r="AU19" s="1">
         <v>10.580822</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.567000</v>
+        <v>996.56700000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.740000</v>
+        <v>-108.74</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>38102.004414</v>
+        <v>38102.004414000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>10.583890</v>
+        <v>10.58389</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.820000</v>
+        <v>1004.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.357000</v>
+        <v>-124.357</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>38112.295905</v>
+        <v>38112.295904999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.586749</v>
+        <v>10.586748999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.233000</v>
+        <v>-196.233</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>38123.652802</v>
+        <v>38123.652801999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.589904</v>
+        <v>10.589904000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.287000</v>
+        <v>-313.28699999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>38135.418898</v>
+        <v>38135.418898000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>10.593172</v>
+        <v>10.593171999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-498.645000</v>
+        <v>-498.64499999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>38146.389935</v>
+        <v>38146.389934999999</v>
       </c>
       <c r="BT19" s="1">
         <v>10.596219</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.820000</v>
+        <v>1337.82</v>
       </c>
       <c r="BV19" s="1">
-        <v>-702.291000</v>
+        <v>-702.29100000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>38157.227525</v>
+        <v>38157.227525000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.599230</v>
+        <v>10.59923</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.170000</v>
+        <v>1474.17</v>
       </c>
       <c r="CA19" s="1">
-        <v>-920.366000</v>
+        <v>-920.36599999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>38169.738610</v>
+        <v>38169.73861</v>
       </c>
       <c r="CD19" s="1">
         <v>10.602705</v>
       </c>
       <c r="CE19" s="1">
-        <v>1832.300000</v>
+        <v>1832.3</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1438.800000</v>
+        <v>-1438.8</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>37995.897267</v>
       </c>
@@ -5107,238 +5523,238 @@
         <v>10.554416</v>
       </c>
       <c r="C20" s="1">
-        <v>899.249000</v>
+        <v>899.24900000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-188.290000</v>
+        <v>-188.29</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>38006.356398</v>
+        <v>38006.356398000004</v>
       </c>
       <c r="G20" s="1">
         <v>10.557321</v>
       </c>
       <c r="H20" s="1">
-        <v>917.316000</v>
+        <v>917.31600000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-162.126000</v>
+        <v>-162.126</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>38016.821023</v>
+        <v>38016.821022999997</v>
       </c>
       <c r="L20" s="1">
         <v>10.560228</v>
       </c>
       <c r="M20" s="1">
-        <v>942.296000</v>
+        <v>942.29600000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.160000</v>
+        <v>-118.16</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>38027.381313</v>
+        <v>38027.381312999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.563161</v>
+        <v>10.563160999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>950.052000</v>
+        <v>950.05200000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.807000</v>
+        <v>-102.807</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>38037.852382</v>
+        <v>38037.852381999997</v>
       </c>
       <c r="V20" s="1">
-        <v>10.566070</v>
+        <v>10.56607</v>
       </c>
       <c r="W20" s="1">
-        <v>957.803000</v>
+        <v>957.803</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.512600</v>
+        <v>-88.512600000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>38048.387877</v>
+        <v>38048.387877000001</v>
       </c>
       <c r="AA20" s="1">
         <v>10.568997</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.929000</v>
+        <v>965.92899999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.314700</v>
+        <v>-77.314700000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>38058.852503</v>
+        <v>38058.852503000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>10.571903</v>
+        <v>10.571903000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.023000</v>
+        <v>971.02300000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.055400</v>
+        <v>-75.055400000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>38069.316105</v>
+        <v>38069.316104999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.574810</v>
+        <v>10.574809999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.531000</v>
+        <v>978.53099999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.701900</v>
+        <v>-79.701899999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>38080.194827</v>
+        <v>38080.194826999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>10.577832</v>
+        <v>10.577832000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.701000</v>
+        <v>986.70100000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.176300</v>
+        <v>-91.176299999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>38091.321754</v>
+        <v>38091.321753999997</v>
       </c>
       <c r="AU20" s="1">
         <v>10.580923</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.576000</v>
+        <v>996.57600000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.709000</v>
+        <v>-108.709</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>38102.364033</v>
+        <v>38102.364032999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.583990</v>
+        <v>10.58399</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.355000</v>
+        <v>-124.355</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>38112.655505</v>
+        <v>38112.655505000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.586849</v>
+        <v>10.586849000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.249000</v>
+        <v>-196.249</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>38124.410688</v>
+        <v>38124.410688000004</v>
       </c>
       <c r="BJ20" s="1">
         <v>10.590114</v>
       </c>
       <c r="BK20" s="1">
-        <v>1109.260000</v>
+        <v>1109.26</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.299000</v>
+        <v>-313.29899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>38135.859841</v>
+        <v>38135.859840999998</v>
       </c>
       <c r="BO20" s="1">
         <v>10.593294</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-498.659000</v>
+        <v>-498.65899999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>38146.802114</v>
+        <v>38146.802113999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.596334</v>
+        <v>10.596334000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.840000</v>
+        <v>1337.84</v>
       </c>
       <c r="BV20" s="1">
-        <v>-702.247000</v>
+        <v>-702.24699999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>38157.647636</v>
+        <v>38157.647636000002</v>
       </c>
       <c r="BY20" s="1">
         <v>10.599347</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.140000</v>
+        <v>1474.14</v>
       </c>
       <c r="CA20" s="1">
-        <v>-920.257000</v>
+        <v>-920.25699999999995</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>38170.253956</v>
@@ -5347,392 +5763,392 @@
         <v>10.602848</v>
       </c>
       <c r="CE20" s="1">
-        <v>1833.580000</v>
+        <v>1833.58</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1439.000000</v>
+        <v>-1439</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>37996.268794</v>
+        <v>37996.268794000003</v>
       </c>
       <c r="B21" s="1">
-        <v>10.554519</v>
+        <v>10.554519000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>899.331000</v>
+        <v>899.33100000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-188.354000</v>
+        <v>-188.35400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>38006.701116</v>
+        <v>38006.701115999997</v>
       </c>
       <c r="G21" s="1">
-        <v>10.557417</v>
+        <v>10.557416999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.871000</v>
+        <v>916.87099999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.685000</v>
+        <v>-161.685</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>38017.169216</v>
+        <v>38017.169216000002</v>
       </c>
       <c r="L21" s="1">
-        <v>10.560325</v>
+        <v>10.560325000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>942.161000</v>
+        <v>942.16099999999994</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.026000</v>
+        <v>-118.026</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>38027.727553</v>
+        <v>38027.727552999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.563258</v>
+        <v>10.563257999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>950.114000</v>
+        <v>950.11400000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.826000</v>
+        <v>-102.82599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>38038.272466</v>
+        <v>38038.272466000002</v>
       </c>
       <c r="V21" s="1">
-        <v>10.566187</v>
+        <v>10.566186999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>957.722000</v>
+        <v>957.72199999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.485300</v>
+        <v>-88.485299999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>38048.822372</v>
+        <v>38048.822372000002</v>
       </c>
       <c r="AA21" s="1">
         <v>10.569117</v>
       </c>
       <c r="AB21" s="1">
-        <v>965.903000</v>
+        <v>965.90300000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.237600</v>
+        <v>-77.2376</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>38059.145111</v>
+        <v>38059.145110999998</v>
       </c>
       <c r="AF21" s="1">
         <v>10.571985</v>
       </c>
       <c r="AG21" s="1">
-        <v>970.992000</v>
+        <v>970.99199999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.018100</v>
+        <v>-75.018100000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>38069.665293</v>
+        <v>38069.665292999998</v>
       </c>
       <c r="AK21" s="1">
         <v>10.574907</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.504000</v>
+        <v>978.50400000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.686800</v>
+        <v>-79.686800000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>38080.554923</v>
+        <v>38080.554923000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>10.577932</v>
+        <v>10.577932000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.709000</v>
+        <v>986.70899999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.176900</v>
+        <v>-91.176900000000003</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>38091.693084</v>
+        <v>38091.693083999999</v>
       </c>
       <c r="AU21" s="1">
         <v>10.581026</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.559000</v>
+        <v>996.55899999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.742000</v>
+        <v>-108.742</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>38102.935405</v>
+        <v>38102.935404999997</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.584149</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.850000</v>
+        <v>1004.85</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.344000</v>
+        <v>-124.34399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>38113.378175</v>
+        <v>38113.378174999998</v>
       </c>
       <c r="BE21" s="1">
         <v>10.587049</v>
       </c>
       <c r="BF21" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.227000</v>
+        <v>-196.227</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>38124.805536</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.590224</v>
+        <v>10.590223999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1109.260000</v>
+        <v>1109.26</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.302000</v>
+        <v>-313.30200000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>38136.238289</v>
+        <v>38136.238289000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.593400</v>
+        <v>10.593400000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.620000</v>
+        <v>1216.6199999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-498.633000</v>
+        <v>-498.63299999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>38147.230662</v>
+        <v>38147.230662000002</v>
       </c>
       <c r="BT21" s="1">
         <v>10.596453</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.920000</v>
+        <v>1337.92</v>
       </c>
       <c r="BV21" s="1">
-        <v>-702.295000</v>
+        <v>-702.29499999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>38158.382296</v>
+        <v>38158.382296000003</v>
       </c>
       <c r="BY21" s="1">
         <v>10.599551</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.080000</v>
+        <v>1474.08</v>
       </c>
       <c r="CA21" s="1">
-        <v>-920.322000</v>
+        <v>-920.322</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>38171.086212</v>
+        <v>38171.086212000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.603080</v>
+        <v>10.60308</v>
       </c>
       <c r="CE21" s="1">
-        <v>1833.610000</v>
+        <v>1833.61</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1437.480000</v>
+        <v>-1437.48</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>37996.613260</v>
+        <v>37996.613259999998</v>
       </c>
       <c r="B22" s="1">
         <v>10.554615</v>
       </c>
       <c r="C22" s="1">
-        <v>899.142000</v>
+        <v>899.14200000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-188.336000</v>
+        <v>-188.33600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>38007.046062</v>
+        <v>38007.046062000001</v>
       </c>
       <c r="G22" s="1">
         <v>10.557513</v>
       </c>
       <c r="H22" s="1">
-        <v>917.018000</v>
+        <v>917.01800000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.991000</v>
+        <v>-161.99100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>38017.594254</v>
+        <v>38017.594254000003</v>
       </c>
       <c r="L22" s="1">
-        <v>10.560443</v>
+        <v>10.560442999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>942.241000</v>
+        <v>942.24099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.985000</v>
+        <v>-117.985</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>38028.156592</v>
+        <v>38028.156591999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.563377</v>
+        <v>10.563376999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>950.102000</v>
+        <v>950.10199999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.780000</v>
+        <v>-102.78</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>38038.552243</v>
+        <v>38038.552242999998</v>
       </c>
       <c r="V22" s="1">
         <v>10.566265</v>
       </c>
       <c r="W22" s="1">
-        <v>957.809000</v>
+        <v>957.80899999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.508800</v>
+        <v>-88.508799999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>38049.089716</v>
+        <v>38049.089716000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.569192</v>
+        <v>10.569191999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.932000</v>
+        <v>965.93200000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.197500</v>
+        <v>-77.197500000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>38059.487846</v>
+        <v>38059.487846000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.572080</v>
+        <v>10.57208</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.009000</v>
+        <v>971.00900000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.048700</v>
+        <v>-75.048699999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>38070.018408</v>
+        <v>38070.018408000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.575005</v>
+        <v>10.575005000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.521000</v>
+        <v>978.52099999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.684500</v>
+        <v>-79.6845</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>38080.915018</v>
@@ -5741,165 +6157,165 @@
         <v>10.578032</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.708000</v>
+        <v>986.70799999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.174600</v>
+        <v>-91.174599999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>38092.427173</v>
+        <v>38092.427172999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.581230</v>
+        <v>10.58123</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.575000</v>
+        <v>996.57500000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.732000</v>
+        <v>-108.732</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>38103.082221</v>
+        <v>38103.082220999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.584190</v>
+        <v>10.58419</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.372000</v>
+        <v>-124.372</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>38113.765055</v>
+        <v>38113.765055000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.587157</v>
+        <v>10.587156999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.232000</v>
+        <v>-196.232</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>38125.194368</v>
+        <v>38125.194367999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.590332</v>
       </c>
       <c r="BK22" s="1">
-        <v>1109.230000</v>
+        <v>1109.23</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.309000</v>
+        <v>-313.30900000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>38136.657941</v>
+        <v>38136.657940999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.593516</v>
+        <v>10.593515999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-498.603000</v>
+        <v>-498.60300000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>38147.967186</v>
+        <v>38147.967186000002</v>
       </c>
       <c r="BT22" s="1">
         <v>10.596658</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.010000</v>
+        <v>1338.01</v>
       </c>
       <c r="BV22" s="1">
-        <v>-702.289000</v>
+        <v>-702.28899999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>38158.498245</v>
+        <v>38158.498245000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.599583</v>
+        <v>10.599583000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.170000</v>
+        <v>1474.17</v>
       </c>
       <c r="CA22" s="1">
-        <v>-920.348000</v>
+        <v>-920.34799999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>38171.326770</v>
+        <v>38171.32677</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.603146</v>
+        <v>10.603146000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.720000</v>
+        <v>1831.72</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1438.150000</v>
+        <v>-1438.15</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>37996.955721</v>
+        <v>37996.955720999998</v>
       </c>
       <c r="B23" s="1">
-        <v>10.554710</v>
+        <v>10.55471</v>
       </c>
       <c r="C23" s="1">
-        <v>899.221000</v>
+        <v>899.221</v>
       </c>
       <c r="D23" s="1">
-        <v>-188.281000</v>
+        <v>-188.28100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>38007.461483</v>
+        <v>38007.461482999999</v>
       </c>
       <c r="G23" s="1">
-        <v>10.557628</v>
+        <v>10.557627999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>917.198000</v>
+        <v>917.19799999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.061000</v>
+        <v>-162.06100000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>38017.881965</v>
@@ -5908,73 +6324,73 @@
         <v>10.560523</v>
       </c>
       <c r="M23" s="1">
-        <v>942.299000</v>
+        <v>942.29899999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.938000</v>
+        <v>-117.938</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>38028.435312</v>
+        <v>38028.435312000001</v>
       </c>
       <c r="Q23" s="1">
         <v>10.563454</v>
       </c>
       <c r="R23" s="1">
-        <v>950.157000</v>
+        <v>950.15700000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.801000</v>
+        <v>-102.801</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>38038.899411</v>
+        <v>38038.899410999999</v>
       </c>
       <c r="V23" s="1">
-        <v>10.566361</v>
+        <v>10.566361000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>957.794000</v>
+        <v>957.79399999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.511300</v>
+        <v>-88.511300000000006</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>38049.445843</v>
+        <v>38049.445843000001</v>
       </c>
       <c r="AA23" s="1">
         <v>10.569291</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.975000</v>
+        <v>965.97500000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.152500</v>
+        <v>-77.152500000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>38059.831079</v>
+        <v>38059.831079000003</v>
       </c>
       <c r="AF23" s="1">
         <v>10.572175</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.019000</v>
+        <v>971.01900000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.074400</v>
+        <v>-75.074399999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>38070.711356</v>
@@ -5983,151 +6399,151 @@
         <v>10.575198</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.485000</v>
+        <v>978.48500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.680700</v>
+        <v>-79.680700000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>38081.640665</v>
+        <v>38081.640664999999</v>
       </c>
       <c r="AP23" s="1">
         <v>10.578234</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.717000</v>
+        <v>986.71699999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.191500</v>
+        <v>-91.191500000000005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>38092.805611</v>
+        <v>38092.805611000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.581335</v>
+        <v>10.581334999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.562000</v>
+        <v>996.56200000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.750000</v>
+        <v>-108.75</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>38103.439836</v>
+        <v>38103.439835999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.584289</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.840000</v>
+        <v>1004.84</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.343000</v>
+        <v>-124.343</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>38114.126142</v>
+        <v>38114.126142000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>10.587257</v>
+        <v>10.587256999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.219000</v>
+        <v>-196.21899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>38125.878878</v>
+        <v>38125.878878000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>10.590522</v>
       </c>
       <c r="BK23" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.311000</v>
+        <v>-313.31099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>38137.442080</v>
+        <v>38137.442080000001</v>
       </c>
       <c r="BO23" s="1">
         <v>10.593734</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-498.662000</v>
+        <v>-498.66199999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>38148.106561</v>
+        <v>38148.106561000001</v>
       </c>
       <c r="BT23" s="1">
         <v>10.596696</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.130000</v>
+        <v>1338.13</v>
       </c>
       <c r="BV23" s="1">
-        <v>-702.312000</v>
+        <v>-702.31200000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>38158.945670</v>
+        <v>38158.945670000001</v>
       </c>
       <c r="BY23" s="1">
         <v>10.599707</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.030000</v>
+        <v>1474.03</v>
       </c>
       <c r="CA23" s="1">
-        <v>-920.278000</v>
+        <v>-920.27800000000002</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>38171.856541</v>
+        <v>38171.856541000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.603293</v>
+        <v>10.603293000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1833.060000</v>
+        <v>1833.06</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1439.140000</v>
+        <v>-1439.14</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>37997.378352</v>
       </c>
@@ -6135,28 +6551,28 @@
         <v>10.554827</v>
       </c>
       <c r="C24" s="1">
-        <v>899.240000</v>
+        <v>899.24</v>
       </c>
       <c r="D24" s="1">
-        <v>-188.104000</v>
+        <v>-188.10400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>38007.740266</v>
+        <v>38007.740266000001</v>
       </c>
       <c r="G24" s="1">
         <v>10.557706</v>
       </c>
       <c r="H24" s="1">
-        <v>916.808000</v>
+        <v>916.80799999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.587000</v>
+        <v>-161.58699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>38018.225197</v>
@@ -6165,148 +6581,148 @@
         <v>10.560618</v>
       </c>
       <c r="M24" s="1">
-        <v>942.162000</v>
+        <v>942.16200000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.895000</v>
+        <v>-117.895</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>38028.783539</v>
+        <v>38028.783538999996</v>
       </c>
       <c r="Q24" s="1">
         <v>10.563551</v>
       </c>
       <c r="R24" s="1">
-        <v>950.157000</v>
+        <v>950.15700000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.858000</v>
+        <v>-102.858</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>38039.240657</v>
+        <v>38039.240657000002</v>
       </c>
       <c r="V24" s="1">
-        <v>10.566456</v>
+        <v>10.566456000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>957.725000</v>
+        <v>957.72500000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.433200</v>
+        <v>-88.433199999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>38049.811923</v>
+        <v>38049.811923000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.569392</v>
+        <v>10.569392000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.919000</v>
+        <v>965.91899999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.199000</v>
+        <v>-77.198999999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>38060.518073</v>
+        <v>38060.518072999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.572366</v>
+        <v>10.572366000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.007000</v>
+        <v>971.00699999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.047700</v>
+        <v>-75.047700000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>38071.061532</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.575295</v>
+        <v>10.575295000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.509000</v>
+        <v>978.50900000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.696900</v>
+        <v>-79.696899999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>38082.020600</v>
+        <v>38082.020600000003</v>
       </c>
       <c r="AP24" s="1">
         <v>10.578339</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.684000</v>
+        <v>986.68399999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.173900</v>
+        <v>-91.173900000000003</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>38093.174671</v>
+        <v>38093.174671000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.581437</v>
+        <v>10.581436999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.577000</v>
+        <v>996.577</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.730000</v>
+        <v>-108.73</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>38104.109436</v>
+        <v>38104.109435999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.584475</v>
+        <v>10.584474999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.361000</v>
+        <v>-124.361</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>38114.789791</v>
+        <v>38114.789791000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>10.587442</v>
+        <v>10.587441999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.244000</v>
+        <v>-196.244</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>38126.350542</v>
@@ -6315,150 +6731,150 @@
         <v>10.590653</v>
       </c>
       <c r="BK24" s="1">
-        <v>1109.250000</v>
+        <v>1109.25</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.323000</v>
+        <v>-313.32299999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>38137.893471</v>
+        <v>38137.893471000003</v>
       </c>
       <c r="BO24" s="1">
         <v>10.593859</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-498.625000</v>
+        <v>-498.625</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>38148.507824</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.596808</v>
+        <v>10.596807999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.170000</v>
+        <v>1338.17</v>
       </c>
       <c r="BV24" s="1">
-        <v>-702.335000</v>
+        <v>-702.33500000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>38159.378176</v>
+        <v>38159.378175999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.599827</v>
+        <v>10.599826999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.140000</v>
+        <v>1474.14</v>
       </c>
       <c r="CA24" s="1">
-        <v>-920.356000</v>
+        <v>-920.35599999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>38172.415985</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.603449</v>
+        <v>10.603448999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1833.430000</v>
+        <v>1833.43</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1437.520000</v>
+        <v>-1437.52</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>37997.653098</v>
+        <v>37997.653098000003</v>
       </c>
       <c r="B25" s="1">
-        <v>10.554904</v>
+        <v>10.554904000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>899.172000</v>
+        <v>899.17200000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-188.143000</v>
+        <v>-188.143</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>38008.085948</v>
       </c>
       <c r="G25" s="1">
-        <v>10.557802</v>
+        <v>10.557802000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>916.719000</v>
+        <v>916.71900000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-162.277000</v>
+        <v>-162.27699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>38018.569388</v>
+        <v>38018.569388000004</v>
       </c>
       <c r="L25" s="1">
-        <v>10.560714</v>
+        <v>10.560714000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>942.257000</v>
+        <v>942.25699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.954000</v>
+        <v>-117.95399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>38029.132191</v>
+        <v>38029.132190999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.563648</v>
+        <v>10.563648000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>950.098000</v>
+        <v>950.09799999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.822000</v>
+        <v>-102.822</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>38039.929104</v>
+        <v>38039.929104000003</v>
       </c>
       <c r="V25" s="1">
         <v>10.566647</v>
       </c>
       <c r="W25" s="1">
-        <v>957.712000</v>
+        <v>957.71199999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.476700</v>
+        <v>-88.476699999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>38050.495874</v>
@@ -6467,58 +6883,58 @@
         <v>10.569582</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.868000</v>
+        <v>965.86800000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.306400</v>
+        <v>-77.306399999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>38060.860802</v>
+        <v>38060.860802000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.572461</v>
+        <v>10.572461000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.001000</v>
+        <v>971.00099999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.036600</v>
+        <v>-75.036600000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>38071.410680</v>
+        <v>38071.410680000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.575392</v>
+        <v>10.575392000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.500000</v>
+        <v>978.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.722400</v>
+        <v>-79.722399999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>38082.379208</v>
+        <v>38082.379207999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.578439</v>
+        <v>10.578438999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.703000</v>
+        <v>986.70299999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.179200</v>
+        <v>-91.179199999999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>38093.844265</v>
@@ -6527,28 +6943,28 @@
         <v>10.581623</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.562000</v>
+        <v>996.56200000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>38104.518170</v>
+        <v>38104.518170000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.584588</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.830000</v>
+        <v>1004.83</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.361000</v>
+        <v>-124.361</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>38115.240157</v>
@@ -6557,13 +6973,13 @@
         <v>10.587567</v>
       </c>
       <c r="BF25" s="1">
-        <v>1043.190000</v>
+        <v>1043.19</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.254000</v>
+        <v>-196.25399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>38126.726013</v>
@@ -6572,332 +6988,333 @@
         <v>10.590757</v>
       </c>
       <c r="BK25" s="1">
-        <v>1109.240000</v>
+        <v>1109.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.294000</v>
+        <v>-313.29399999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>38138.289247</v>
+        <v>38138.289247000001</v>
       </c>
       <c r="BO25" s="1">
         <v>10.593969</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-498.626000</v>
+        <v>-498.62599999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>38148.946820</v>
+        <v>38148.946819999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.596930</v>
+        <v>10.59693</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.170000</v>
+        <v>1338.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-702.400000</v>
+        <v>-702.4</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>38159.798258</v>
+        <v>38159.798258000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.599944</v>
+        <v>10.599944000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.070000</v>
+        <v>1474.07</v>
       </c>
       <c r="CA25" s="1">
-        <v>-920.160000</v>
+        <v>-920.16</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>38172.937284</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.603594</v>
+        <v>10.603593999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.880000</v>
+        <v>1831.88</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1438.750000</v>
+        <v>-1438.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>37997.993848</v>
+        <v>37997.993847999998</v>
       </c>
       <c r="B26" s="1">
-        <v>10.554998</v>
+        <v>10.554997999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>899.227000</v>
+        <v>899.22699999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-188.323000</v>
+        <v>-188.32300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>38008.430665</v>
       </c>
       <c r="G26" s="1">
-        <v>10.557897</v>
+        <v>10.557897000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>916.569000</v>
+        <v>916.56899999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.915000</v>
+        <v>-161.91499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>38019.264812</v>
+        <v>38019.264812000001</v>
       </c>
       <c r="L26" s="1">
         <v>10.560907</v>
       </c>
       <c r="M26" s="1">
-        <v>942.526000</v>
+        <v>942.52599999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.777000</v>
+        <v>-117.777</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>38029.830061</v>
+        <v>38029.830061000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.563842</v>
+        <v>10.563841999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>950.085000</v>
+        <v>950.08500000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.791000</v>
+        <v>-102.791</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>38040.269392</v>
+        <v>38040.269392000002</v>
       </c>
       <c r="V26" s="1">
         <v>10.566741</v>
       </c>
       <c r="W26" s="1">
-        <v>957.760000</v>
+        <v>957.76</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.510800</v>
+        <v>-88.510800000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>38050.842579</v>
+        <v>38050.842578999996</v>
       </c>
       <c r="AA26" s="1">
         <v>10.569678</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.858000</v>
+        <v>965.85799999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.131200</v>
+        <v>-77.131200000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>38061.205524</v>
+        <v>38061.205523999997</v>
       </c>
       <c r="AF26" s="1">
         <v>10.572557</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.030000</v>
+        <v>971.03</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.053700</v>
+        <v>-75.053700000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>38072.095158</v>
+        <v>38072.095157999996</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.575582</v>
+        <v>10.575582000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.538000</v>
+        <v>978.53800000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.695700</v>
+        <v>-79.695700000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>38083.049303</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.578625</v>
+        <v>10.578625000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.714000</v>
+        <v>986.71400000000006</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.190800</v>
+        <v>-91.190799999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>38094.300056</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.581750</v>
+        <v>10.58175</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.572000</v>
+        <v>996.572</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.740000</v>
+        <v>-108.74</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>38104.904523</v>
+        <v>38104.904522999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.584696</v>
+        <v>10.584695999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.790000</v>
+        <v>1004.79</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.364000</v>
+        <v>-124.364</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>38115.601771</v>
+        <v>38115.601771000001</v>
       </c>
       <c r="BE26" s="1">
         <v>10.587667</v>
       </c>
       <c r="BF26" s="1">
-        <v>1043.180000</v>
+        <v>1043.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.244000</v>
+        <v>-196.244</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>38127.110909</v>
+        <v>38127.110909000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.590864</v>
       </c>
       <c r="BK26" s="1">
-        <v>1109.270000</v>
+        <v>1109.27</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.303000</v>
+        <v>-313.303</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>38138.716821</v>
+        <v>38138.716821000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.594088</v>
+        <v>10.594087999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-498.635000</v>
+        <v>-498.63499999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>38149.365904</v>
+        <v>38149.365903999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>10.597046</v>
+        <v>10.597046000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.180000</v>
+        <v>1338.18</v>
       </c>
       <c r="BV26" s="1">
-        <v>-702.397000</v>
+        <v>-702.39700000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>38160.222370</v>
+        <v>38160.222370000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>10.600062</v>
+        <v>10.600061999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.160000</v>
+        <v>1474.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-920.335000</v>
+        <v>-920.33500000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>38173.476461</v>
+        <v>38173.476460999998</v>
       </c>
       <c r="CD26" s="1">
         <v>10.603743</v>
       </c>
       <c r="CE26" s="1">
-        <v>1833.630000</v>
+        <v>1833.63</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1438.690000</v>
+        <v>-1438.69</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>